--- a/biology/Biochimie/EC_3.3/EC_3.3.xlsx
+++ b/biology/Biochimie/EC_3.3/EC_3.3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le groupe EC3.3 regroupe les enzymes appelées éther-hydrolases. Elles font partie des hydrolases, c'est-à-dire que leur rôle est de couper des molécules en molécules plus petites. La réaction générale catalysée par ces enzymes est :
 R-O-R' + H2O  
@@ -523,12 +535,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">EC 3.3.1 : Hydrolases spécifiques des liaisons thioéther et des trialkylsulfoniums
+          <t>EC 3.3.1 : Hydrolases spécifiques des liaisons thioéther et des trialkylsulfoniums</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.3.1
 EC 3.3.1.1 : adénosylhomocystéinase
 EC 3.3.1.2 : adénosylméthionine-hydrolase
 EC 3.3.1.3 : déplacée vers EC 3.2.1.148
-EC 3.3.2 : Autres éther-hydrolases
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EC_3.3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification des éther-hydrolases</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>EC 3.3.2 : Autres éther-hydrolases</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.3.2
 EC 3.3.2.1 : isochorismatase
 EC 3.3.2.2 : alkénylglycérophosphocholine-hydrolase
